--- a/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
+++ b/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="260">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skills</t>
   </si>
   <si>
     <t xml:space="preserve">leelakrishna</t>
@@ -777,23 +780,43 @@
     <t xml:space="preserve">anand@gmail.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Anand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">@123</t>
-    </r>
+    <t xml:space="preserve">Anand@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aashika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aashika@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aashika@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abha@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chakori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chakori@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chakori@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serviceprovider</t>
   </si>
 </sst>
 </file>
@@ -803,7 +826,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -837,11 +860,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -924,10 +942,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -944,7 +962,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.36"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -988,1646 +1006,1886 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>9191919911</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>9191919991</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>9191919199</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>9191919199</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>8181818181</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>8181818181</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>7171717171</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>9292929292</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>8282282828</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2727272727</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>8383838383</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>9292929292</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>7272727272</v>
+        <v>7272673272</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>7567272727</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>7285872727</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>7272727474</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
+++ b/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
@@ -37,33 +37,33 @@
     <t xml:space="preserve">subDomain</t>
   </si>
   <si>
+    <t xml:space="preserve">currentLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefferedLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoleName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skills</t>
+  </si>
+  <si>
     <t xml:space="preserve">chargePerHour</t>
   </si>
   <si>
-    <t xml:space="preserve">currentLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefferedLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoleName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills</t>
-  </si>
-  <si>
     <t xml:space="preserve">leelakrishna</t>
   </si>
   <si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">gettogether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$20</t>
   </si>
   <si>
     <t xml:space="preserve">banglore</t>
@@ -117,6 +114,9 @@
     <t xml:space="preserve">ServiceProvider</t>
   </si>
   <si>
+    <t xml:space="preserve">$20</t>
+  </si>
+  <si>
     <t xml:space="preserve">ramya</t>
   </si>
   <si>
@@ -129,27 +129,27 @@
     <t xml:space="preserve">productlaunch</t>
   </si>
   <si>
+    <t xml:space="preserve">Itangar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itangar,Patna,Panaji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c++,springmvc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramya@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$30</t>
   </si>
   <si>
-    <t xml:space="preserve">Itangar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itangar,Patna,Panaji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systems analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c++,springmvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramya@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">mansi</t>
   </si>
   <si>
@@ -159,27 +159,27 @@
     <t xml:space="preserve">conferencemanagement</t>
   </si>
   <si>
+    <t xml:space="preserve">Dispur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh,Shimla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">php,asp.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansi@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$40</t>
   </si>
   <si>
-    <t xml:space="preserve">Dispur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandigarh,Shimla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">php,asp.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mansi@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">jyotishree</t>
   </si>
   <si>
@@ -189,27 +189,27 @@
     <t xml:space="preserve">wedding</t>
   </si>
   <si>
+    <t xml:space="preserve">Patna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imphal,Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicrosoftFlow,Tech Savvy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jyotishree@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$10</t>
   </si>
   <si>
-    <t xml:space="preserve">Patna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imphal,Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicrosoftFlow,Tech Savvy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jyotishree@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">ankita</t>
   </si>
   <si>
@@ -246,27 +246,27 @@
     <t xml:space="preserve">cybersecurity</t>
   </si>
   <si>
+    <t xml:space="preserve">Panaji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhopal,Kohima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kafka,rabbitmq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manish@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$50</t>
   </si>
   <si>
-    <t xml:space="preserve">Panaji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhopal,Kohima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kafka,rabbitmq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manish@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">sruthi</t>
   </si>
   <si>
@@ -276,24 +276,24 @@
     <t xml:space="preserve">web</t>
   </si>
   <si>
+    <t xml:space="preserve">Gandhinagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucknow,Ranchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neo4j,cloud,cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sruthi@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$60</t>
   </si>
   <si>
-    <t xml:space="preserve">Gandhinagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucknow,Ranchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neo4j,cloud,cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sruthi@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">aditya</t>
   </si>
   <si>
@@ -303,24 +303,24 @@
     <t xml:space="preserve">IoT</t>
   </si>
   <si>
+    <t xml:space="preserve">Chandigarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh,Jaipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core java,json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$120</t>
   </si>
   <si>
-    <t xml:space="preserve">Chandigarh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandigarh,Jaipur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software tester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">core java,json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">megha</t>
   </si>
   <si>
@@ -351,21 +351,21 @@
     <t xml:space="preserve">android</t>
   </si>
   <si>
+    <t xml:space="preserve">Srinagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energetic,Dart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirtika@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$100</t>
   </si>
   <si>
-    <t xml:space="preserve">Srinagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energetic,Dart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirtika@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">shiv</t>
   </si>
   <si>
@@ -399,18 +399,18 @@
     <t xml:space="preserve">bigdata</t>
   </si>
   <si>
+    <t xml:space="preserve">7 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache Nifi,Flexibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indira@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$90</t>
   </si>
   <si>
-    <t xml:space="preserve">7 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Nifi,Flexibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indira@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">naveen</t>
   </si>
   <si>
@@ -420,36 +420,36 @@
     <t xml:space="preserve">blockchain</t>
   </si>
   <si>
+    <t xml:space="preserve">Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svelte,Apple MDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveen@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$70</t>
   </si>
   <si>
-    <t xml:space="preserve">Thiruvananthapuram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svelte,Apple MDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naveen@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">shailesh</t>
   </si>
   <si>
     <t xml:space="preserve">shailesh@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Bhopal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pycharm,eventmgmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shailesh@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$80</t>
   </si>
   <si>
-    <t xml:space="preserve">Bhopal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pycharm,eventmgmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shailesh@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">pushkar</t>
   </si>
   <si>
@@ -585,48 +585,48 @@
     <t xml:space="preserve">sneha@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneha@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$200</t>
   </si>
   <si>
-    <t xml:space="preserve">Chennai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneha@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">samresh</t>
   </si>
   <si>
     <t xml:space="preserve">samresh@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blockchain developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samresh@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$500</t>
   </si>
   <si>
-    <t xml:space="preserve">Hyderabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blockchain developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samresh@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">anil</t>
   </si>
   <si>
     <t xml:space="preserve">anil@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Agartala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anil@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$600</t>
   </si>
   <si>
-    <t xml:space="preserve">Agartala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anil@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">suresh</t>
   </si>
   <si>
@@ -798,25 +798,25 @@
     <t xml:space="preserve">abha@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Abha@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">$201</t>
   </si>
   <si>
-    <t xml:space="preserve">Abha@123</t>
-  </si>
-  <si>
     <t xml:space="preserve">chakori</t>
   </si>
   <si>
     <t xml:space="preserve">chakori@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Chakori@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serviceprovider</t>
+  </si>
+  <si>
     <t xml:space="preserve">$401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chakori@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serviceprovider</t>
   </si>
 </sst>
 </file>
@@ -909,12 +909,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -927,12 +927,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -942,9 +942,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -955,15 +955,16 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,7 +983,7 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -1004,16 +1005,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,25 +1036,25 @@
       <c r="F2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="L2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1067,35 +1068,35 @@
       <c r="C3" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,7 +1109,7 @@
       <c r="C4" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -1117,26 +1118,26 @@
       <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="0" t="s">
         <v>43</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,35 +1150,35 @@
       <c r="C5" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="0" t="s">
         <v>54</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>55</v>
       </c>
       <c r="L5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,34 +1191,34 @@
       <c r="C6" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="I6" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="J6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="L6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1231,35 +1232,35 @@
       <c r="C7" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="0" t="s">
         <v>72</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,35 +1273,35 @@
       <c r="C8" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,35 +1314,35 @@
       <c r="C9" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,35 +1355,35 @@
       <c r="C10" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="0" t="s">
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="0" t="s">
-        <v>25</v>
+      <c r="L10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,35 +1396,35 @@
       <c r="C11" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,35 +1437,35 @@
       <c r="C12" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="G12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="I12" s="0" t="s">
+        <v>114</v>
+      </c>
       <c r="J12" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="M12" s="0" t="s">
-        <v>25</v>
+      <c r="L12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,35 +1478,35 @@
       <c r="C13" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,35 +1519,35 @@
       <c r="C14" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,35 +1560,35 @@
       <c r="C15" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,35 +1601,35 @@
       <c r="C16" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>91</v>
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="M16" s="0" t="s">
-        <v>25</v>
+      <c r="L16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,35 +1642,35 @@
       <c r="C17" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>72</v>
+      <c r="G17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="0" t="s">
-        <v>25</v>
+      <c r="L17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,34 +1683,34 @@
       <c r="C18" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>18</v>
+      <c r="F18" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="I18" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="L18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1723,35 +1724,35 @@
       <c r="C19" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>91</v>
+      <c r="G19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M19" s="0" t="s">
-        <v>25</v>
+      <c r="L19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,35 +1765,35 @@
       <c r="C20" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="G20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="I20" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="J20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M20" s="0" t="s">
-        <v>25</v>
+      <c r="L20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,35 +1806,35 @@
       <c r="C21" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>126</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="I21" s="0" t="s">
+        <v>114</v>
+      </c>
       <c r="J21" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M21" s="0" t="s">
-        <v>25</v>
+      <c r="L21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,35 +1847,35 @@
       <c r="C22" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1" t="s">
         <v>169</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M22" s="0" t="s">
-        <v>25</v>
+      <c r="L22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,35 +1888,35 @@
       <c r="C23" s="0" t="n">
         <v>9191919911</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>91</v>
+      <c r="G23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="L23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M23" s="0" t="s">
-        <v>25</v>
+      <c r="L23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,35 +1929,35 @@
       <c r="C24" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>42</v>
+      <c r="G24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="J24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="M24" s="0" t="s">
-        <v>25</v>
+      <c r="L24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1970,7 @@
       <c r="C25" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="0" t="s">
@@ -1978,26 +1979,26 @@
       <c r="F25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,7 +2011,7 @@
       <c r="C26" s="0" t="n">
         <v>9191919991</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
@@ -2019,26 +2020,26 @@
       <c r="F26" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J26" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,7 +2052,7 @@
       <c r="C27" s="0" t="n">
         <v>9191919199</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="0" t="s">
@@ -2060,26 +2061,26 @@
       <c r="F27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,35 +2093,35 @@
       <c r="C28" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="G28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="I28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="M28" s="0" t="s">
-        <v>25</v>
+      <c r="L28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,35 +2134,35 @@
       <c r="C29" s="0" t="n">
         <v>9191919199</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="G29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="I29" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="J29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M29" s="0" t="s">
-        <v>25</v>
+      <c r="L29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,35 +2175,35 @@
       <c r="C30" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="I30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="M30" s="0" t="s">
-        <v>25</v>
+      <c r="L30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,35 +2216,35 @@
       <c r="C31" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>32</v>
+      <c r="H31" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="J31" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="M31" s="0" t="s">
-        <v>25</v>
+      <c r="L31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,35 +2257,35 @@
       <c r="C32" s="0" t="n">
         <v>9191919191</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="I32" s="0" t="s">
+        <v>140</v>
+      </c>
       <c r="J32" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M32" s="0" t="s">
-        <v>25</v>
+      <c r="L32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,35 +2298,35 @@
       <c r="C33" s="0" t="n">
         <v>8181818181</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>59</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="0" t="s">
+      <c r="I33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="M33" s="0" t="s">
-        <v>25</v>
+      <c r="L33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,35 +2339,35 @@
       <c r="C34" s="0" t="n">
         <v>8181818181</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="G34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="I34" s="0" t="s">
+        <v>222</v>
+      </c>
       <c r="J34" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="K34" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="M34" s="0" t="s">
-        <v>25</v>
+      <c r="L34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,35 +2380,35 @@
       <c r="C35" s="0" t="n">
         <v>7171717171</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="0" t="s">
+      <c r="I35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="M35" s="0" t="s">
-        <v>25</v>
+      <c r="L35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,7 +2421,7 @@
       <c r="C36" s="0" t="n">
         <v>9292929292</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="0" t="s">
@@ -2429,26 +2430,26 @@
       <c r="F36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="G36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="I36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="M36" s="0" t="s">
-        <v>25</v>
+      <c r="L36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,35 +2462,35 @@
       <c r="C37" s="0" t="n">
         <v>8282282828</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="F37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="I37" s="0" t="s">
+        <v>234</v>
+      </c>
       <c r="J37" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="L37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="M37" s="0" t="s">
-        <v>25</v>
+      <c r="L37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,32 +2506,32 @@
       <c r="D38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="G38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="L38" s="3" t="s">
+      <c r="I38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M38" s="0" t="s">
-        <v>25</v>
+      <c r="L38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,35 +2544,35 @@
       <c r="C39" s="0" t="n">
         <v>8383838383</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="F39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="I39" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="J39" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="L39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="M39" s="0" t="s">
-        <v>25</v>
+      <c r="L39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,35 +2585,35 @@
       <c r="C40" s="0" t="n">
         <v>9292929292</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>91</v>
+      <c r="I40" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="L40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="M40" s="0" t="s">
-        <v>25</v>
+      <c r="L40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,35 +2626,35 @@
       <c r="C41" s="0" t="n">
         <v>7272673272</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>133</v>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>22</v>
+      <c r="I41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,35 +2667,35 @@
       <c r="C42" s="0" t="n">
         <v>7567272727</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="0" t="s">
         <v>22</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,226 +2708,119 @@
       <c r="C43" s="0" t="n">
         <v>7285872727</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="L43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>7272727474</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="M43" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>7272727474</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L44" s="2" t="s">
+      <c r="K44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="P44" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1"/>
+      <c r="AMJ44" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="Leelakrishna@123"/>
-    <hyperlink ref="L3" r:id="rId2" display="Ramya@123"/>
-    <hyperlink ref="L4" r:id="rId3" display="Mansi@123"/>
-    <hyperlink ref="L6" r:id="rId4" display="Ankita@123"/>
-    <hyperlink ref="L7" r:id="rId5" display="Manish@123"/>
-    <hyperlink ref="L8" r:id="rId6" display="Sruthi@123"/>
-    <hyperlink ref="L9" r:id="rId7" display="Aditya@123"/>
-    <hyperlink ref="L10" r:id="rId8" display="Megha@123"/>
-    <hyperlink ref="L11" r:id="rId9" display="Kirtika@123"/>
-    <hyperlink ref="L12" r:id="rId10" display="Shiv@123"/>
-    <hyperlink ref="L13" r:id="rId11" display="Indira@123"/>
-    <hyperlink ref="L14" r:id="rId12" display="Naveen@123"/>
-    <hyperlink ref="L15" r:id="rId13" display="Shailesh@123"/>
-    <hyperlink ref="L16" r:id="rId14" display="Pushkar@123"/>
-    <hyperlink ref="L17" r:id="rId15" display="Raju@123"/>
-    <hyperlink ref="L18" r:id="rId16" display="Sushree@123"/>
-    <hyperlink ref="L19" r:id="rId17" display="Aniket@123"/>
-    <hyperlink ref="L20" r:id="rId18" display="Vijay@123"/>
-    <hyperlink ref="L21" r:id="rId19" display="Rakesh@123"/>
-    <hyperlink ref="L22" r:id="rId20" display="Jayshree@123"/>
-    <hyperlink ref="L23" r:id="rId21" display="Sivadatta@123"/>
-    <hyperlink ref="L24" r:id="rId22" display="Nishi@123"/>
-    <hyperlink ref="L25" r:id="rId23" display="Sneha@123"/>
-    <hyperlink ref="L26" r:id="rId24" display="Samresh@123"/>
-    <hyperlink ref="L27" r:id="rId25" display="Anil@123"/>
-    <hyperlink ref="L28" r:id="rId26" display="Suresh@123"/>
-    <hyperlink ref="L29" r:id="rId27" display="Praveen@123"/>
-    <hyperlink ref="L30" r:id="rId28" display="Atul@123"/>
-    <hyperlink ref="L31" r:id="rId29" display="Hamzah@123"/>
-    <hyperlink ref="L32" r:id="rId30" display="Shifa@123"/>
-    <hyperlink ref="L33" r:id="rId31" display="Samreen@123"/>
-    <hyperlink ref="L34" r:id="rId32" display="Anendra@123"/>
-    <hyperlink ref="L35" r:id="rId33" display="Happy@123"/>
-    <hyperlink ref="L36" r:id="rId34" display="Chaitanya@123"/>
-    <hyperlink ref="L37" r:id="rId35" display="Afreen@123"/>
-    <hyperlink ref="L38" r:id="rId36" display="Tejaswini@123"/>
-    <hyperlink ref="L39" r:id="rId37" display="Pushpendra@123"/>
-    <hyperlink ref="L40" r:id="rId38" display="Anu@123"/>
+    <hyperlink ref="K2" r:id="rId1" display="Leelakrishna@123"/>
+    <hyperlink ref="K3" r:id="rId2" display="Ramya@123"/>
+    <hyperlink ref="K4" r:id="rId3" display="Mansi@123"/>
+    <hyperlink ref="K6" r:id="rId4" display="Ankita@123"/>
+    <hyperlink ref="K7" r:id="rId5" display="Manish@123"/>
+    <hyperlink ref="K8" r:id="rId6" display="Sruthi@123"/>
+    <hyperlink ref="K9" r:id="rId7" display="Aditya@123"/>
+    <hyperlink ref="K10" r:id="rId8" display="Megha@123"/>
+    <hyperlink ref="K11" r:id="rId9" display="Kirtika@123"/>
+    <hyperlink ref="K12" r:id="rId10" display="Shiv@123"/>
+    <hyperlink ref="K13" r:id="rId11" display="Indira@123"/>
+    <hyperlink ref="K14" r:id="rId12" display="Naveen@123"/>
+    <hyperlink ref="K15" r:id="rId13" display="Shailesh@123"/>
+    <hyperlink ref="K16" r:id="rId14" display="Pushkar@123"/>
+    <hyperlink ref="K17" r:id="rId15" display="Raju@123"/>
+    <hyperlink ref="K18" r:id="rId16" display="Sushree@123"/>
+    <hyperlink ref="K19" r:id="rId17" display="Aniket@123"/>
+    <hyperlink ref="K20" r:id="rId18" display="Vijay@123"/>
+    <hyperlink ref="K21" r:id="rId19" display="Rakesh@123"/>
+    <hyperlink ref="K22" r:id="rId20" display="Jayshree@123"/>
+    <hyperlink ref="K23" r:id="rId21" display="Sivadatta@123"/>
+    <hyperlink ref="K24" r:id="rId22" display="Nishi@123"/>
+    <hyperlink ref="K25" r:id="rId23" display="Sneha@123"/>
+    <hyperlink ref="K26" r:id="rId24" display="Samresh@123"/>
+    <hyperlink ref="K27" r:id="rId25" display="Anil@123"/>
+    <hyperlink ref="K28" r:id="rId26" display="Suresh@123"/>
+    <hyperlink ref="K29" r:id="rId27" display="Praveen@123"/>
+    <hyperlink ref="K30" r:id="rId28" display="Atul@123"/>
+    <hyperlink ref="K31" r:id="rId29" display="Hamzah@123"/>
+    <hyperlink ref="K32" r:id="rId30" display="Shifa@123"/>
+    <hyperlink ref="K33" r:id="rId31" display="Samreen@123"/>
+    <hyperlink ref="K34" r:id="rId32" display="Anendra@123"/>
+    <hyperlink ref="K35" r:id="rId33" display="Happy@123"/>
+    <hyperlink ref="K36" r:id="rId34" display="Chaitanya@123"/>
+    <hyperlink ref="K37" r:id="rId35" display="Afreen@123"/>
+    <hyperlink ref="K38" r:id="rId36" display="Tejaswini@123"/>
+    <hyperlink ref="K39" r:id="rId37" display="Pushpendra@123"/>
+    <hyperlink ref="K40" r:id="rId38" display="Anu@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
+++ b/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="259">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -43,19 +43,19 @@
     <t xml:space="preserve">prefferedLocation</t>
   </si>
   <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
     <t xml:space="preserve">RoleName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
   </si>
   <si>
     <t xml:space="preserve">Skills</t>
@@ -99,696 +99,696 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">software engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysql,css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leelakrishna@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceProvider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productlaunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itangar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itangar,Patna,Panaji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systems analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c++,springmvc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramya@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mansi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mansi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conferencemanagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh,Shimla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">php,asp.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansi@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyotishree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyotishree@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imphal,Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microsoftflow,tech savvy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jyotishree@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankita@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai,Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cisco,azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankita@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manish@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cybersecurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panaji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhopal,Kohima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kafka,rabbitmq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manish@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sruthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sruthi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gandhinagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucknow,Ranchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neo4j,cloud,cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sruthi@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IoT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh,Jaipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core java,json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">megha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">megha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shimla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scala,unix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megha@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kirtika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kirtika@gamil.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srinagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energetic,dart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirtika@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shiv@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloudcomputing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp,pycharm,pycharm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiv@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indira@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apache nifi,flexibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indira@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naveen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naveen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blockchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svelte,apple mdm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveen@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shailesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shailesh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhopal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pycharm,eventmgmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shailesh@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushkar@gamil.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kotlin,jest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushkar@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raju@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imphal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">html,javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raju@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sushree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sushree@gamil.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shillong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ui designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sushree@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aniket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aniket@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aizawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aniket@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vijay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vijay@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kohima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijay@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakesh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhubaneshwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rakesh@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jayshree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jayshree@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayshree@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sivadatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sivadatta@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sivadatta@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nishi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nishi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangtok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishi@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sneha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sneha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneha@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samresh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blockchain developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samresh@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anil@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agartala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anil@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suresh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehradun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suresh@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">praveen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">praveen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucknow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile app developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praveen@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atul@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolkata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atul@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamzah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamzah@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamzah@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shifa@gamil.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shifa@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samreen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samreen@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anendra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anendra@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine learning engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anendra@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">happy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dotnet developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaitanya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaitanya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaitanya@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afreen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afreen@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tejaswini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tejaswini@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejaswini@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushpendra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushpendra@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushpendra@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anu@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anand@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anand@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aashika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aashika@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Software engineer</t>
   </si>
   <si>
-    <t xml:space="preserve">5 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysql,css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leelakrishna@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServiceProvider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ramya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ramya@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">productlaunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itangar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itangar,Patna,Panaji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systems analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c++,springmvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramya@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mansi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mansi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conferencemanagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandigarh,Shimla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">php,asp.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mansi@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jyotishree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jyotishree@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wedding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imphal,Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicrosoftFlow,Tech Savvy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jyotishree@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankita@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raipur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chennai,Hyderabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cisco,azure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankita@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manish@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cybersecurity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panaji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhopal,Kohima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kafka,rabbitmq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manish@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sruthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sruthi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gandhinagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucknow,Ranchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neo4j,cloud,cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sruthi@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditya@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandigarh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandigarh,Jaipur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software tester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">core java,json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">megha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">megha@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shimla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scala,unix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megha@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kirtika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kirtika@gamil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srinagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energetic,Dart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirtika@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shiv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shiv@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cloudcomputing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp,pycharm,pycharm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiv@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indira@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bigdata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Nifi,Flexibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indira@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naveen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naveen@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blockchain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiruvananthapuram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svelte,Apple MDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naveen@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shailesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shailesh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhopal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pycharm,eventmgmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shailesh@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushkar@gamil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin,Jest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pushkar@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raju@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imphal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">html,javascript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raju@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sushree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sushree@gamil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shillong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ui designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sushree@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aniket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aniket@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aizawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aniket@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vijay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vijay@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kohima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vijay@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rakesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rakesh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhubaneshwar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rakesh@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jayshree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jayshree@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jayshree@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sivadatta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sivadatta@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaipur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sivadatta@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nishi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nishi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gangtok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">database engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishi@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sneha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sneha@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chennai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneha@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samresh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samresh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyderabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blockchain developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samresh@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anil@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agartala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anil@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suresh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suresh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dehradun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suresh@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">praveen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">praveen@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucknow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile app developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praveen@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atul@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolkata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atul@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamzah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamzah@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamzah@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shifa@gamil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifa@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samreen@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samreen@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anendra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anendra@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machine learning engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anendra@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">happy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">happy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dotnet developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaitanya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaitanya@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaitanya@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afreen@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afreen@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tejaswini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tejaswini@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tejaswini@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushpendra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushpendra@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pushpendra@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anu@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anu@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anand@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anand@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aashika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aashika@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aashika@123</t>
   </si>
   <si>
@@ -811,9 +811,6 @@
   </si>
   <si>
     <t xml:space="preserve">Chakori@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serviceprovider</t>
   </si>
   <si>
     <t xml:space="preserve">$401</t>
@@ -927,12 +924,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -944,8 +941,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J45" activeCellId="0" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1002,10 +999,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="N1" s="0" t="s">
         <v>12</v>
@@ -1860,7 +1857,7 @@
         <v>19</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>120</v>
@@ -1869,7 +1866,7 @@
         <v>121</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>24</v>
@@ -1880,10 +1877,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>9191919911</v>
@@ -1895,7 +1892,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>31</v>
@@ -1910,7 +1907,7 @@
         <v>128</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>24</v>
@@ -1921,10 +1918,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>9191919191</v>
@@ -1936,13 +1933,13 @@
         <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>63</v>
@@ -1951,7 +1948,7 @@
         <v>134</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>24</v>
@@ -1962,10 +1959,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>9191919191</v>
@@ -1977,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>51</v>
@@ -1992,21 +1989,21 @@
         <v>141</v>
       </c>
       <c r="K25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>186</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>9191919991</v>
@@ -2018,13 +2015,13 @@
         <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>114</v>
@@ -2033,21 +2030,21 @@
         <v>146</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>9191919199</v>
@@ -2059,7 +2056,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>70</v>
@@ -2074,21 +2071,21 @@
         <v>91</v>
       </c>
       <c r="K27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>197</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>9191919191</v>
@@ -2100,7 +2097,7 @@
         <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>80</v>
@@ -2115,7 +2112,7 @@
         <v>106</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>24</v>
@@ -2126,10 +2123,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>9191919199</v>
@@ -2141,13 +2138,13 @@
         <v>78</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>43</v>
@@ -2156,7 +2153,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>24</v>
@@ -2167,10 +2164,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>206</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>9191919191</v>
@@ -2182,7 +2179,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>19</v>
@@ -2197,7 +2194,7 @@
         <v>121</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>24</v>
@@ -2208,10 +2205,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>9191919191</v>
@@ -2229,7 +2226,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>63</v>
@@ -2238,7 +2235,7 @@
         <v>128</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>24</v>
@@ -2249,10 +2246,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>213</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>9191919191</v>
@@ -2270,7 +2267,7 @@
         <v>41</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>140</v>
@@ -2279,21 +2276,21 @@
         <v>134</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>8181818181</v>
@@ -2320,21 +2317,21 @@
         <v>141</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>24</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>220</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>8181818181</v>
@@ -2352,30 +2349,30 @@
         <v>31</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>222</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>146</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>24</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>225</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>7171717171</v>
@@ -2393,7 +2390,7 @@
         <v>41</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>21</v>
@@ -2402,7 +2399,7 @@
         <v>64</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>24</v>
@@ -2413,10 +2410,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>229</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>9292929292</v>
@@ -2434,7 +2431,7 @@
         <v>51</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>33</v>
@@ -2443,7 +2440,7 @@
         <v>73</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>24</v>
@@ -2454,10 +2451,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>233</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>8282282828</v>
@@ -2475,16 +2472,16 @@
         <v>61</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>82</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>24</v>
@@ -2495,10 +2492,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2727272727</v>
@@ -2516,7 +2513,7 @@
         <v>70</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>53</v>
@@ -2525,7 +2522,7 @@
         <v>91</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>24</v>
@@ -2536,10 +2533,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>240</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>8383838383</v>
@@ -2566,7 +2563,7 @@
         <v>121</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L39" s="0" t="s">
         <v>24</v>
@@ -2577,10 +2574,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>243</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>9292929292</v>
@@ -2607,7 +2604,7 @@
         <v>128</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>24</v>
@@ -2618,10 +2615,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>246</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>7272673272</v>
@@ -2648,7 +2645,7 @@
         <v>134</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>24</v>
@@ -2659,10 +2656,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>249</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>7567272727</v>
@@ -2680,7 +2677,7 @@
         <v>19</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>21</v>
@@ -2695,7 +2692,7 @@
         <v>24</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,10 +2771,10 @@
         <v>257</v>
       </c>
       <c r="L44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="AMJ44" s="0"/>
     </row>

--- a/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
+++ b/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="260">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">currentLocation</t>
   </si>
   <si>
-    <t xml:space="preserve">prefferedLocation</t>
+    <t xml:space="preserve">preferredLocation</t>
   </si>
   <si>
     <t xml:space="preserve">role</t>
@@ -123,357 +123,357 @@
     <t xml:space="preserve">ramya@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itangar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itangar,Patna,Panaji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systems analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c++,springmvc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramya@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mansi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mansi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conferencemanagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh,Shimla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">php,asp.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansi@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyotishree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jyotishree@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Event Management</t>
   </si>
   <si>
+    <t xml:space="preserve">wedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imphal,Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microsoftflow,tech savvy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jyotishree@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankita@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai,Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cisco,azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankita@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manish@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cybersecurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panaji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhopal,Kohima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kafka,rabbitmq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manish@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sruthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sruthi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gandhinagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucknow,Ranchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neo4j,cloud,cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sruthi@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IoT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh,Jaipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core java,json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">megha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">megha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shimla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scala,unix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megha@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kirtika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kirtika@gamil.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srinagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energetic,dart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirtika@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shiv@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloudcomputing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp,pycharm,pycharm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiv@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indira@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apache nifi,flexibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indira@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naveen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naveen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blockchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svelte,apple mdm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveen@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shailesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shailesh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhopal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pycharm,eventmgmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shailesh@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushkar@gamil.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kotlin,jest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushkar@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raju@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">productlaunch</t>
   </si>
   <si>
-    <t xml:space="preserve">Itangar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itangar,Patna,Panaji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systems analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c++,springmvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramya@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mansi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mansi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conferencemanagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandigarh,Shimla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">php,asp.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mansi@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jyotishree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jyotishree@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wedding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imphal,Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technical support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microsoftflow,tech savvy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jyotishree@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankita@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raipur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chennai,Hyderabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cisco,azure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankita@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manish@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cybersecurity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panaji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhopal,Kohima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technical sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kafka,rabbitmq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manish@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sruthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sruthi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gandhinagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucknow,Ranchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neo4j,cloud,cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sruthi@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aditya@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandigarh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandigarh,Jaipur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">software tester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">core java,json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">megha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">megha@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shimla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scala,unix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megha@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kirtika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kirtika@gamil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srinagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energetic,dart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirtika@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shiv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shiv@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cloudcomputing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp,pycharm,pycharm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiv@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indira@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bigdata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apache nifi,flexibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indira@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naveen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naveen@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blockchain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiruvananthapuram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svelte,apple mdm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naveen@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shailesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shailesh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhopal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pycharm,eventmgmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shailesh@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushkar@gamil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kotlin,jest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pushkar@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raju@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Imphal</t>
   </si>
   <si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t xml:space="preserve">praveen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthday</t>
   </si>
   <si>
     <t xml:space="preserve">Lucknow</t>
@@ -823,7 +826,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -857,6 +860,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -901,7 +909,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -919,6 +927,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -941,8 +953,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J45" activeCellId="0" sqref="J45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1066,42 +1078,42 @@
         <v>9191919191</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9191919191</v>
@@ -1110,45 +1122,45 @@
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>49</v>
@@ -1271,7 +1283,7 @@
         <v>9191919191</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>78</v>
@@ -1353,7 +1365,7 @@
         <v>9191919191</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>96</v>
@@ -1397,39 +1409,39 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J11" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>9191919191</v>
@@ -1438,25 +1450,25 @@
         <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="K12" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>24</v>
@@ -1467,19 +1479,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
@@ -1491,27 +1503,27 @@
         <v>62</v>
       </c>
       <c r="I13" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="K13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9191919191</v>
@@ -1520,10 +1532,10 @@
         <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>89</v>
@@ -1535,36 +1547,36 @@
         <v>72</v>
       </c>
       <c r="J14" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>70</v>
@@ -1573,27 +1585,27 @@
         <v>81</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>9191919191</v>
@@ -1605,57 +1617,57 @@
         <v>87</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I16" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="K16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="L16" s="0" t="s">
         <v>24</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>146</v>
@@ -1667,7 +1679,7 @@
         <v>24</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,10 +1693,10 @@
         <v>9191919191</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>150</v>
@@ -1696,10 +1708,10 @@
         <v>151</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>152</v>
@@ -1725,13 +1737,13 @@
         <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>155</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>90</v>
@@ -1749,7 +1761,7 @@
         <v>24</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,10 +1775,10 @@
         <v>9191919191</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>159</v>
@@ -1781,7 +1793,7 @@
         <v>21</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>161</v>
@@ -1804,10 +1816,10 @@
         <v>9191919191</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>164</v>
@@ -1819,10 +1831,10 @@
         <v>165</v>
       </c>
       <c r="I21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>166</v>
@@ -1831,7 +1843,7 @@
         <v>24</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,10 +1872,10 @@
         <v>62</v>
       </c>
       <c r="I22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>169</v>
@@ -1872,7 +1884,7 @@
         <v>24</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +1907,7 @@
         <v>172</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>90</v>
@@ -1904,7 +1916,7 @@
         <v>72</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>173</v>
@@ -1927,16 +1939,16 @@
         <v>9191919191</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>176</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>177</v>
@@ -1945,7 +1957,7 @@
         <v>63</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>178</v>
@@ -1954,7 +1966,7 @@
         <v>24</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,7 +1983,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>181</v>
@@ -1986,7 +1998,7 @@
         <v>21</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>182</v>
@@ -2009,7 +2021,7 @@
         <v>9191919991</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>49</v>
@@ -2024,7 +2036,7 @@
         <v>187</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>146</v>
@@ -2091,7 +2103,7 @@
         <v>9191919191</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>68</v>
@@ -2106,10 +2118,10 @@
         <v>165</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>198</v>
@@ -2132,28 +2144,28 @@
         <v>9191919199</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>24</v>
@@ -2164,10 +2176,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>9191919191</v>
@@ -2176,10 +2188,10 @@
         <v>16</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>19</v>
@@ -2191,10 +2203,10 @@
         <v>53</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>24</v>
@@ -2205,25 +2217,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>9191919191</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>187</v>
@@ -2232,24 +2244,24 @@
         <v>63</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>24</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>9191919191</v>
@@ -2258,25 +2270,25 @@
         <v>16</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>24</v>
@@ -2287,19 +2299,19 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>8181818181</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>50</v>
@@ -2314,10 +2326,10 @@
         <v>21</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>24</v>
@@ -2328,10 +2340,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>8181818181</v>
@@ -2346,19 +2358,19 @@
         <v>60</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>146</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>24</v>
@@ -2369,28 +2381,28 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>7171717171</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>21</v>
@@ -2399,7 +2411,7 @@
         <v>64</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>24</v>
@@ -2410,10 +2422,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>9292929292</v>
@@ -2431,16 +2443,16 @@
         <v>51</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>73</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>24</v>
@@ -2451,19 +2463,19 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>8282282828</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>88</v>
@@ -2472,30 +2484,30 @@
         <v>61</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>82</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>24</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2727272727</v>
@@ -2504,7 +2516,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>97</v>
@@ -2513,7 +2525,7 @@
         <v>70</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>53</v>
@@ -2522,7 +2534,7 @@
         <v>91</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>24</v>
@@ -2533,22 +2545,22 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>8383838383</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>80</v>
@@ -2560,24 +2572,24 @@
         <v>63</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L39" s="0" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>9292929292</v>
@@ -2586,10 +2598,10 @@
         <v>16</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>89</v>
@@ -2601,33 +2613,33 @@
         <v>72</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>24</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>7272673272</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>18</v>
@@ -2642,24 +2654,24 @@
         <v>21</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>24</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>7567272727</v>
@@ -2677,7 +2689,7 @@
         <v>19</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>21</v>
@@ -2686,7 +2698,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L42" s="0" t="s">
         <v>24</v>
@@ -2697,84 +2709,84 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>7285872727</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="F43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="K43" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L43" s="0" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>7272727474</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K44" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AMJ44" s="0"/>
     </row>

--- a/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
+++ b/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
@@ -831,7 +831,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -850,6 +849,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -860,11 +865,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -914,23 +914,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -951,29 +951,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,7 +2336,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>219</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>232</v>
       </c>
@@ -2748,7 +2746,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>256</v>
       </c>
@@ -2785,10 +2783,12 @@
       <c r="L44" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AMJ44" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
+++ b/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
@@ -826,11 +826,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -846,12 +847,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -909,8 +904,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -918,30 +925,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -953,8 +944,8 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P:P"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -962,16 +953,18 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,7 +1645,7 @@
       <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2308,7 +2301,7 @@
       <c r="D33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2472,7 +2465,7 @@
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F37" s="2" t="s">

--- a/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
+++ b/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
@@ -549,7 +549,7 @@
     <t xml:space="preserve">Suresh</t>
   </si>
   <si>
-    <t xml:space="preserve">suresh@gmail.com</t>
+    <t xml:space="preserve">sureshkumar12074@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Dehradun</t>
@@ -2901,8 +2901,8 @@
   </sheetPr>
   <dimension ref="A1:M256"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J62" activeCellId="0" sqref="J62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
+++ b/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
@@ -2740,12 +2740,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2761,6 +2760,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2843,7 +2848,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2853,31 +2858,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2901,25 +2906,24 @@
   </sheetPr>
   <dimension ref="A1:M256"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -3456,7 +3460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
@@ -4727,7 +4731,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>231</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>234</v>
       </c>
@@ -4809,7 +4813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>238</v>
       </c>
@@ -4850,7 +4854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>241</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>244</v>
       </c>
@@ -4932,7 +4936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>247</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>250</v>
       </c>
@@ -5014,7 +5018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>253</v>
       </c>
@@ -5055,7 +5059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
         <v>256</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
         <v>259</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>262</v>
       </c>
@@ -5178,7 +5182,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
         <v>266</v>
       </c>
@@ -5219,7 +5223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>269</v>
       </c>
@@ -5260,7 +5264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>272</v>
       </c>
@@ -5301,7 +5305,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>275</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>278</v>
       </c>
@@ -5383,7 +5387,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
         <v>281</v>
       </c>
@@ -5424,7 +5428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>284</v>
       </c>
@@ -5465,7 +5469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>287</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
         <v>290</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>294</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>330</v>
       </c>
@@ -6039,7 +6043,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>333</v>
       </c>
@@ -6080,7 +6084,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>336</v>
       </c>
@@ -6121,7 +6125,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>339</v>
       </c>
@@ -6162,7 +6166,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>341</v>
       </c>
@@ -6203,7 +6207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
         <v>344</v>
       </c>
@@ -6244,7 +6248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>347</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>350</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>354</v>
       </c>
@@ -6367,7 +6371,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>357</v>
       </c>
@@ -6408,7 +6412,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
         <v>360</v>
       </c>
@@ -6449,7 +6453,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>363</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
         <v>366</v>
       </c>
@@ -6531,7 +6535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
         <v>369</v>
       </c>
@@ -6572,7 +6576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
         <v>372</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>375</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
         <v>378</v>
       </c>
@@ -6695,7 +6699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>382</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
         <v>385</v>
       </c>
@@ -6777,7 +6781,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
         <v>388</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
         <v>391</v>
       </c>
@@ -6859,7 +6863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
         <v>394</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
         <v>397</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
         <v>400</v>
       </c>
@@ -6982,7 +6986,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
         <v>403</v>
       </c>
@@ -7023,7 +7027,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>406</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
         <v>410</v>
       </c>
@@ -7105,7 +7109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>413</v>
       </c>
@@ -7146,7 +7150,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>416</v>
       </c>
@@ -7187,7 +7191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>419</v>
       </c>
@@ -7228,7 +7232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
         <v>422</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
         <v>425</v>
       </c>
@@ -7310,7 +7314,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>428</v>
       </c>
@@ -7351,7 +7355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>431</v>
       </c>
@@ -7392,7 +7396,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>434</v>
       </c>
@@ -7433,7 +7437,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>437</v>
       </c>
@@ -7474,7 +7478,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>440</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>444</v>
       </c>
@@ -7556,7 +7560,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>447</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>450</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
         <v>453</v>
       </c>
@@ -7679,7 +7683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
         <v>456</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
         <v>459</v>
       </c>
@@ -7761,7 +7765,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>462</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
         <v>465</v>
       </c>
@@ -7843,7 +7847,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>468</v>
       </c>
@@ -7884,7 +7888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
         <v>472</v>
       </c>
@@ -7925,7 +7929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>475</v>
       </c>
@@ -7966,7 +7970,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
         <v>478</v>
       </c>
@@ -8007,7 +8011,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>481</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>484</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>487</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>490</v>
       </c>
@@ -8171,7 +8175,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>493</v>
       </c>
@@ -8212,7 +8216,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
         <v>496</v>
       </c>
@@ -8253,7 +8257,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
         <v>500</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
         <v>503</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
         <v>506</v>
       </c>
@@ -8376,7 +8380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
         <v>509</v>
       </c>
@@ -8417,7 +8421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
         <v>512</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
         <v>515</v>
       </c>
@@ -8499,7 +8503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
         <v>518</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
         <v>521</v>
       </c>
@@ -8581,7 +8585,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
         <v>524</v>
       </c>
@@ -8622,7 +8626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
         <v>527</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
         <v>531</v>
       </c>
@@ -8704,7 +8708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
         <v>534</v>
       </c>
@@ -8745,7 +8749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>537</v>
       </c>
@@ -8786,7 +8790,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
         <v>540</v>
       </c>
@@ -8827,7 +8831,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
         <v>543</v>
       </c>
@@ -8868,7 +8872,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
         <v>546</v>
       </c>
@@ -8909,7 +8913,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
         <v>549</v>
       </c>
@@ -8950,7 +8954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
         <v>552</v>
       </c>
@@ -8991,7 +8995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
         <v>556</v>
       </c>
@@ -9032,7 +9036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
         <v>559</v>
       </c>
@@ -9073,7 +9077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
         <v>562</v>
       </c>
@@ -9114,7 +9118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
         <v>565</v>
       </c>
@@ -9155,7 +9159,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
         <v>568</v>
       </c>
@@ -9196,7 +9200,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
         <v>571</v>
       </c>
@@ -9237,7 +9241,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
         <v>574</v>
       </c>
@@ -9278,7 +9282,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
         <v>577</v>
       </c>
@@ -9319,7 +9323,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
         <v>581</v>
       </c>
@@ -9360,7 +9364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
         <v>584</v>
       </c>
@@ -9401,7 +9405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
         <v>587</v>
       </c>
@@ -9442,7 +9446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
         <v>590</v>
       </c>
@@ -9483,7 +9487,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
         <v>593</v>
       </c>
@@ -9524,7 +9528,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
         <v>596</v>
       </c>
@@ -9565,7 +9569,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
         <v>599</v>
       </c>
@@ -9606,7 +9610,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
         <v>602</v>
       </c>
@@ -9647,7 +9651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
         <v>606</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
         <v>609</v>
       </c>
@@ -9729,7 +9733,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
         <v>612</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
         <v>615</v>
       </c>
@@ -9811,7 +9815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
         <v>617</v>
       </c>
@@ -9852,7 +9856,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
         <v>620</v>
       </c>
@@ -9893,7 +9897,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
         <v>623</v>
       </c>
@@ -9934,7 +9938,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
         <v>626</v>
       </c>
@@ -9975,7 +9979,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
         <v>630</v>
       </c>
@@ -10016,7 +10020,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
         <v>633</v>
       </c>
@@ -10057,7 +10061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
         <v>636</v>
       </c>
@@ -10098,7 +10102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
         <v>639</v>
       </c>
@@ -10139,7 +10143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
         <v>642</v>
       </c>
@@ -10180,7 +10184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
         <v>645</v>
       </c>
@@ -10221,7 +10225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
         <v>648</v>
       </c>
@@ -10262,7 +10266,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
         <v>651</v>
       </c>
@@ -10303,7 +10307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
         <v>654</v>
       </c>
@@ -10344,7 +10348,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
         <v>657</v>
       </c>
@@ -10385,7 +10389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
         <v>661</v>
       </c>
@@ -10426,7 +10430,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
         <v>664</v>
       </c>
@@ -10467,7 +10471,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
         <v>667</v>
       </c>
@@ -10508,7 +10512,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
         <v>670</v>
       </c>
@@ -10549,7 +10553,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
         <v>673</v>
       </c>
@@ -10590,7 +10594,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
         <v>676</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
         <v>679</v>
       </c>
@@ -10672,7 +10676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
         <v>682</v>
       </c>
@@ -10713,7 +10717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
         <v>686</v>
       </c>
@@ -10754,7 +10758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
         <v>689</v>
       </c>
@@ -10795,7 +10799,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
         <v>692</v>
       </c>
@@ -10836,7 +10840,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
         <v>695</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
         <v>698</v>
       </c>
@@ -10918,7 +10922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
         <v>701</v>
       </c>
@@ -10959,7 +10963,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
         <v>704</v>
       </c>
@@ -11000,7 +11004,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
         <v>708</v>
       </c>
@@ -11041,7 +11045,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
         <v>711</v>
       </c>
@@ -11082,7 +11086,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
         <v>714</v>
       </c>
@@ -11123,7 +11127,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
         <v>717</v>
       </c>
@@ -11164,7 +11168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
         <v>720</v>
       </c>
@@ -11205,7 +11209,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
         <v>723</v>
       </c>
@@ -11246,7 +11250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
         <v>726</v>
       </c>
@@ -11287,7 +11291,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
         <v>729</v>
       </c>
@@ -11328,7 +11332,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
         <v>732</v>
       </c>
@@ -11369,7 +11373,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
         <v>736</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
         <v>739</v>
       </c>
@@ -11451,7 +11455,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
         <v>742</v>
       </c>
@@ -11492,7 +11496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
         <v>745</v>
       </c>
@@ -11533,7 +11537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
         <v>748</v>
       </c>
@@ -11574,7 +11578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
         <v>751</v>
       </c>
@@ -11615,7 +11619,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
         <v>754</v>
       </c>
@@ -11656,7 +11660,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
         <v>757</v>
       </c>
@@ -11697,7 +11701,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
         <v>761</v>
       </c>
@@ -11738,7 +11742,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
         <v>764</v>
       </c>
@@ -11779,7 +11783,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
         <v>602</v>
       </c>
@@ -11820,7 +11824,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
         <v>768</v>
       </c>
@@ -11861,7 +11865,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
         <v>771</v>
       </c>
@@ -11902,7 +11906,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
         <v>774</v>
       </c>
@@ -11943,7 +11947,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
         <v>777</v>
       </c>
@@ -12312,7 +12316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
         <v>810</v>
       </c>

--- a/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
+++ b/service-provider-profile-service/src/main/resources/sp-profile-service.xlsx
@@ -549,7 +549,7 @@
     <t xml:space="preserve">Suresh</t>
   </si>
   <si>
-    <t xml:space="preserve">sureshkumar12074@gmail.com</t>
+    <t xml:space="preserve">suresh@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Dehradun</t>
@@ -2740,11 +2740,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2760,12 +2761,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2848,7 +2843,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2858,31 +2853,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2906,24 +2901,25 @@
   </sheetPr>
   <dimension ref="A1:M256"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J62" activeCellId="0" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.9"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -3460,7 +3456,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
@@ -4731,7 +4727,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>231</v>
       </c>
@@ -4772,7 +4768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>234</v>
       </c>
@@ -4813,7 +4809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>238</v>
       </c>
@@ -4854,7 +4850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>241</v>
       </c>
@@ -4895,7 +4891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>244</v>
       </c>
@@ -4936,7 +4932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>247</v>
       </c>
@@ -4977,7 +4973,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>250</v>
       </c>
@@ -5018,7 +5014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>253</v>
       </c>
@@ -5059,7 +5055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
         <v>256</v>
       </c>
@@ -5100,7 +5096,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
         <v>259</v>
       </c>
@@ -5141,7 +5137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>262</v>
       </c>
@@ -5182,7 +5178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
         <v>266</v>
       </c>
@@ -5223,7 +5219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>269</v>
       </c>
@@ -5264,7 +5260,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>272</v>
       </c>
@@ -5305,7 +5301,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>275</v>
       </c>
@@ -5346,7 +5342,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>278</v>
       </c>
@@ -5387,7 +5383,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
         <v>281</v>
       </c>
@@ -5428,7 +5424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>284</v>
       </c>
@@ -5469,7 +5465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>287</v>
       </c>
@@ -5510,7 +5506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
         <v>290</v>
       </c>
@@ -5551,7 +5547,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>294</v>
       </c>
@@ -6002,7 +5998,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>330</v>
       </c>
@@ -6043,7 +6039,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>333</v>
       </c>
@@ -6084,7 +6080,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>336</v>
       </c>
@@ -6125,7 +6121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>339</v>
       </c>
@@ -6166,7 +6162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>341</v>
       </c>
@@ -6207,7 +6203,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
         <v>344</v>
       </c>
@@ -6248,7 +6244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>347</v>
       </c>
@@ -6289,7 +6285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>350</v>
       </c>
@@ -6330,7 +6326,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>354</v>
       </c>
@@ -6371,7 +6367,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>357</v>
       </c>
@@ -6412,7 +6408,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
         <v>360</v>
       </c>
@@ -6453,7 +6449,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>363</v>
       </c>
@@ -6494,7 +6490,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
         <v>366</v>
       </c>
@@ -6535,7 +6531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
         <v>369</v>
       </c>
@@ -6576,7 +6572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
         <v>372</v>
       </c>
@@ -6617,7 +6613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>375</v>
       </c>
@@ -6658,7 +6654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
         <v>378</v>
       </c>
@@ -6699,7 +6695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>382</v>
       </c>
@@ -6740,7 +6736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
         <v>385</v>
       </c>
@@ -6781,7 +6777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
         <v>388</v>
       </c>
@@ -6822,7 +6818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
         <v>391</v>
       </c>
@@ -6863,7 +6859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
         <v>394</v>
       </c>
@@ -6904,7 +6900,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
         <v>397</v>
       </c>
@@ -6945,7 +6941,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
         <v>400</v>
       </c>
@@ -6986,7 +6982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
         <v>403</v>
       </c>
@@ -7027,7 +7023,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>406</v>
       </c>
@@ -7068,7 +7064,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
         <v>410</v>
       </c>
@@ -7109,7 +7105,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>413</v>
       </c>
@@ -7150,7 +7146,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>416</v>
       </c>
@@ -7191,7 +7187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>419</v>
       </c>
@@ -7232,7 +7228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
         <v>422</v>
       </c>
@@ -7273,7 +7269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
         <v>425</v>
       </c>
@@ -7314,7 +7310,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>428</v>
       </c>
@@ -7355,7 +7351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>431</v>
       </c>
@@ -7396,7 +7392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>434</v>
       </c>
@@ -7437,7 +7433,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>437</v>
       </c>
@@ -7478,7 +7474,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>440</v>
       </c>
@@ -7519,7 +7515,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>444</v>
       </c>
@@ -7560,7 +7556,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>447</v>
       </c>
@@ -7601,7 +7597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>450</v>
       </c>
@@ -7642,7 +7638,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
         <v>453</v>
       </c>
@@ -7683,7 +7679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
         <v>456</v>
       </c>
@@ -7724,7 +7720,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
         <v>459</v>
       </c>
@@ -7765,7 +7761,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>462</v>
       </c>
@@ -7806,7 +7802,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
         <v>465</v>
       </c>
@@ -7847,7 +7843,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>468</v>
       </c>
@@ -7888,7 +7884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
         <v>472</v>
       </c>
@@ -7929,7 +7925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>475</v>
       </c>
@@ -7970,7 +7966,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
         <v>478</v>
       </c>
@@ -8011,7 +8007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>481</v>
       </c>
@@ -8052,7 +8048,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>484</v>
       </c>
@@ -8093,7 +8089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>487</v>
       </c>
@@ -8134,7 +8130,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>490</v>
       </c>
@@ -8175,7 +8171,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>493</v>
       </c>
@@ -8216,7 +8212,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
         <v>496</v>
       </c>
@@ -8257,7 +8253,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
         <v>500</v>
       </c>
@@ -8298,7 +8294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
         <v>503</v>
       </c>
@@ -8339,7 +8335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
         <v>506</v>
       </c>
@@ -8380,7 +8376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
         <v>509</v>
       </c>
@@ -8421,7 +8417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
         <v>512</v>
       </c>
@@ -8462,7 +8458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
         <v>515</v>
       </c>
@@ -8503,7 +8499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
         <v>518</v>
       </c>
@@ -8544,7 +8540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
         <v>521</v>
       </c>
@@ -8585,7 +8581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
         <v>524</v>
       </c>
@@ -8626,7 +8622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
         <v>527</v>
       </c>
@@ -8667,7 +8663,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
         <v>531</v>
       </c>
@@ -8708,7 +8704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
         <v>534</v>
       </c>
@@ -8749,7 +8745,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>537</v>
       </c>
@@ -8790,7 +8786,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
         <v>540</v>
       </c>
@@ -8831,7 +8827,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
         <v>543</v>
       </c>
@@ -8872,7 +8868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
         <v>546</v>
       </c>
@@ -8913,7 +8909,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
         <v>549</v>
       </c>
@@ -8954,7 +8950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
         <v>552</v>
       </c>
@@ -8995,7 +8991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
         <v>556</v>
       </c>
@@ -9036,7 +9032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
         <v>559</v>
       </c>
@@ -9077,7 +9073,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
         <v>562</v>
       </c>
@@ -9118,7 +9114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
         <v>565</v>
       </c>
@@ -9159,7 +9155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
         <v>568</v>
       </c>
@@ -9200,7 +9196,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
         <v>571</v>
       </c>
@@ -9241,7 +9237,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
         <v>574</v>
       </c>
@@ -9282,7 +9278,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
         <v>577</v>
       </c>
@@ -9323,7 +9319,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
         <v>581</v>
       </c>
@@ -9364,7 +9360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
         <v>584</v>
       </c>
@@ -9405,7 +9401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
         <v>587</v>
       </c>
@@ -9446,7 +9442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
         <v>590</v>
       </c>
@@ -9487,7 +9483,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
         <v>593</v>
       </c>
@@ -9528,7 +9524,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
         <v>596</v>
       </c>
@@ -9569,7 +9565,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
         <v>599</v>
       </c>
@@ -9610,7 +9606,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
         <v>602</v>
       </c>
@@ -9651,7 +9647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
         <v>606</v>
       </c>
@@ -9692,7 +9688,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
         <v>609</v>
       </c>
@@ -9733,7 +9729,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
         <v>612</v>
       </c>
@@ -9774,7 +9770,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
         <v>615</v>
       </c>
@@ -9815,7 +9811,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
         <v>617</v>
       </c>
@@ -9856,7 +9852,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
         <v>620</v>
       </c>
@@ -9897,7 +9893,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
         <v>623</v>
       </c>
@@ -9938,7 +9934,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
         <v>626</v>
       </c>
@@ -9979,7 +9975,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
         <v>630</v>
       </c>
@@ -10020,7 +10016,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
         <v>633</v>
       </c>
@@ -10061,7 +10057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
         <v>636</v>
       </c>
@@ -10102,7 +10098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
         <v>639</v>
       </c>
@@ -10143,7 +10139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
         <v>642</v>
       </c>
@@ -10184,7 +10180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
         <v>645</v>
       </c>
@@ -10225,7 +10221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
         <v>648</v>
       </c>
@@ -10266,7 +10262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
         <v>651</v>
       </c>
@@ -10307,7 +10303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
         <v>654</v>
       </c>
@@ -10348,7 +10344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
         <v>657</v>
       </c>
@@ -10389,7 +10385,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
         <v>661</v>
       </c>
@@ -10430,7 +10426,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
         <v>664</v>
       </c>
@@ -10471,7 +10467,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
         <v>667</v>
       </c>
@@ -10512,7 +10508,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
         <v>670</v>
       </c>
@@ -10553,7 +10549,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
         <v>673</v>
       </c>
@@ -10594,7 +10590,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
         <v>676</v>
       </c>
@@ -10635,7 +10631,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
         <v>679</v>
       </c>
@@ -10676,7 +10672,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
         <v>682</v>
       </c>
@@ -10717,7 +10713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
         <v>686</v>
       </c>
@@ -10758,7 +10754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
         <v>689</v>
       </c>
@@ -10799,7 +10795,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
         <v>692</v>
       </c>
@@ -10840,7 +10836,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
         <v>695</v>
       </c>
@@ -10881,7 +10877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
         <v>698</v>
       </c>
@@ -10922,7 +10918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
         <v>701</v>
       </c>
@@ -10963,7 +10959,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
         <v>704</v>
       </c>
@@ -11004,7 +11000,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
         <v>708</v>
       </c>
@@ -11045,7 +11041,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
         <v>711</v>
       </c>
@@ -11086,7 +11082,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
         <v>714</v>
       </c>
@@ -11127,7 +11123,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
         <v>717</v>
       </c>
@@ -11168,7 +11164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
         <v>720</v>
       </c>
@@ -11209,7 +11205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
         <v>723</v>
       </c>
@@ -11250,7 +11246,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
         <v>726</v>
       </c>
@@ -11291,7 +11287,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
         <v>729</v>
       </c>
@@ -11332,7 +11328,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
         <v>732</v>
       </c>
@@ -11373,7 +11369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
         <v>736</v>
       </c>
@@ -11414,7 +11410,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
         <v>739</v>
       </c>
@@ -11455,7 +11451,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
         <v>742</v>
       </c>
@@ -11496,7 +11492,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
         <v>745</v>
       </c>
@@ -11537,7 +11533,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
         <v>748</v>
       </c>
@@ -11578,7 +11574,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
         <v>751</v>
       </c>
@@ -11619,7 +11615,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
         <v>754</v>
       </c>
@@ -11660,7 +11656,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
         <v>757</v>
       </c>
@@ -11701,7 +11697,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
         <v>761</v>
       </c>
@@ -11742,7 +11738,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
         <v>764</v>
       </c>
@@ -11783,7 +11779,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
         <v>602</v>
       </c>
@@ -11824,7 +11820,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
         <v>768</v>
       </c>
@@ -11865,7 +11861,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
         <v>771</v>
       </c>
@@ -11906,7 +11902,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
         <v>774</v>
       </c>
@@ -11947,7 +11943,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
         <v>777</v>
       </c>
@@ -12316,7 +12312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
         <v>810</v>
       </c>
